--- a/biology/Botanique/Yves_Brunier_(paysagiste)/Yves_Brunier_(paysagiste).xlsx
+++ b/biology/Botanique/Yves_Brunier_(paysagiste)/Yves_Brunier_(paysagiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yves Brunier, né le 10 novembre 1962 à Évian-les-Bains et mort le 2 octobre 1991 à Évian-les-Bains, est un architecte paysagiste français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yves Brunier, né le 10 novembre 1962 à Évian-les-Bains et mort le 2 octobre 1991 à Évian-les-Bains, est un architecte paysagiste français.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômé de l'École nationale supérieure du paysage de Versailles, il s'associe à Isabelle Auricoste[2], et en seulement cinq années d'activité professionnelle produit une quinzaine de projets. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômé de l'École nationale supérieure du paysage de Versailles, il s'associe à Isabelle Auricoste, et en seulement cinq années d'activité professionnelle produit une quinzaine de projets. 
 Son œuvre porte un regard nouveau et singulier sur l'espace au-delà du domaine strict de sa discipline. Son travail, alliant des effets visuels extrêmement forts à une approche complètement nouvelle du paysage, révéla un talent exceptionnel. Il puisait sa très grande liberté conceptuelle à la fois dans une attitude critique rigoureuse et dans une attention particulière portée aux individus, aux lieux et aux choses.
-Avec Rem Koolhaas, il réalise le Museum Park à Rotterdam, le jardin de la Villa dall'Ava à Saint-Cloud, la première version du projet du parc urbain pour Euralille (non réalisé) ; avec Jean Nouvel, les jardins de l'Hôtel Saint-James[3] à Bouliac et de l'Hôtel des Thermes à Dax, la place du Général Leclerc à Tours (devant le Centre international de congrès de Tours); avec Willem Jan Neutelings et Franck Roodbeen, le siège du centre européen des Brevets à La Haye (non réalisé) ; des jardins particuliers en Gironde et en Belgique.
+Avec Rem Koolhaas, il réalise le Museum Park à Rotterdam, le jardin de la Villa dall'Ava à Saint-Cloud, la première version du projet du parc urbain pour Euralille (non réalisé) ; avec Jean Nouvel, les jardins de l'Hôtel Saint-James à Bouliac et de l'Hôtel des Thermes à Dax, la place du Général Leclerc à Tours (devant le Centre international de congrès de Tours); avec Willem Jan Neutelings et Franck Roodbeen, le siège du centre européen des Brevets à La Haye (non réalisé) ; des jardins particuliers en Gironde et en Belgique.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Yves Brunier, paysagiste par Rem Koolhaas, éditions Birkhauser.  (ISBN 3-7643-5436-4)</t>
         </is>
